--- a/excel-sheet.xlsx
+++ b/excel-sheet.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="96" yWindow="144" windowWidth="23892" windowHeight="9768"/>
+    <workbookView xWindow="96" yWindow="132" windowWidth="22932" windowHeight="9240"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,18 +16,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="1">
   <si>
-    <t>amount</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rate </t>
-  </si>
-  <si>
-    <t>year</t>
-  </si>
-  <si>
-    <t>no</t>
+    <t>*</t>
   </si>
 </sst>
 </file>
@@ -359,131 +350,423 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:G34"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="295" zoomScaleNormal="295" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
+      <selection activeCell="M10" sqref="M10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="9" width="2.77734375" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:7">
       <c r="B1">
-        <v>1000</v>
+        <v>1</v>
       </c>
       <c r="C1">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="D1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
+        <v>3</v>
+      </c>
+      <c r="E1">
+        <v>4</v>
+      </c>
+      <c r="F1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>2</v>
+      </c>
+      <c r="D2">
+        <v>3</v>
+      </c>
+      <c r="E2">
+        <v>4</v>
+      </c>
+      <c r="F2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="D3">
+        <v>3</v>
+      </c>
+      <c r="E3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B4">
-        <v>1000</v>
+        <v>1</v>
       </c>
       <c r="C4">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="D4">
-        <v>1</v>
-      </c>
-      <c r="E4">
-        <f>(B4*C4*D4)/100</f>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B5">
-        <f>B4+E4</f>
-        <v>1100</v>
+        <v>1</v>
       </c>
       <c r="C5">
-        <v>10</v>
-      </c>
-      <c r="D5">
-        <v>1</v>
-      </c>
-      <c r="E5">
-        <f>(B5*C5*D5)/100</f>
-        <v>110</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B6">
-        <f>B5+E5</f>
-        <v>1210</v>
-      </c>
-      <c r="C6">
-        <v>10</v>
-      </c>
-      <c r="D6">
-        <v>1</v>
-      </c>
-      <c r="E6">
-        <f>(B6*C6*D6)/100</f>
-        <v>121</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7">
-        <v>4</v>
-      </c>
-      <c r="B7">
-        <f>B6+E6</f>
-        <v>1331</v>
-      </c>
-      <c r="C7">
-        <v>10</v>
-      </c>
-      <c r="D7">
-        <v>1</v>
-      </c>
-      <c r="E7">
-        <f>(B7*C7*D7)/100</f>
-        <v>133.1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8">
-        <v>5</v>
-      </c>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="B8">
-        <f>B7+E7</f>
-        <v>1464.1</v>
+        <v>1</v>
       </c>
       <c r="C8">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="D8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E8">
-        <f>(B8*C8*D8)/100</f>
-        <v>146.41</v>
+        <v>4</v>
+      </c>
+      <c r="F8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9">
+        <v>1</v>
+      </c>
+      <c r="B9" t="s">
+        <v>0</v>
+      </c>
+      <c r="C9" t="s">
+        <v>0</v>
+      </c>
+      <c r="D9" t="s">
+        <v>0</v>
+      </c>
+      <c r="E9" t="s">
+        <v>0</v>
+      </c>
+      <c r="F9" t="s">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10">
+        <v>2</v>
+      </c>
+      <c r="B10" t="s">
+        <v>0</v>
+      </c>
+      <c r="C10" t="s">
+        <v>0</v>
+      </c>
+      <c r="D10" t="s">
+        <v>0</v>
+      </c>
+      <c r="E10" t="s">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11">
+        <v>3</v>
+      </c>
+      <c r="B11" t="s">
+        <v>0</v>
+      </c>
+      <c r="C11" t="s">
+        <v>0</v>
+      </c>
+      <c r="D11" t="s">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12">
+        <v>4</v>
+      </c>
+      <c r="B12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C12" t="s">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13">
+        <v>5</v>
+      </c>
+      <c r="B13" t="s">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="B15">
+        <v>1</v>
+      </c>
+      <c r="C15">
+        <v>2</v>
+      </c>
+      <c r="D15">
+        <v>3</v>
+      </c>
+      <c r="E15">
+        <v>4</v>
+      </c>
+      <c r="F15">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16">
+        <v>1</v>
+      </c>
+      <c r="B16" t="s">
+        <v>0</v>
+      </c>
+      <c r="C16" t="s">
+        <v>0</v>
+      </c>
+      <c r="D16" t="s">
+        <v>0</v>
+      </c>
+      <c r="E16" t="s">
+        <v>0</v>
+      </c>
+      <c r="F16" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17">
+        <v>2</v>
+      </c>
+      <c r="B17" t="s">
+        <v>0</v>
+      </c>
+      <c r="C17" t="s">
+        <v>0</v>
+      </c>
+      <c r="D17" t="s">
+        <v>0</v>
+      </c>
+      <c r="E17" t="s">
+        <v>0</v>
+      </c>
+      <c r="F17" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18">
+        <v>3</v>
+      </c>
+      <c r="B18" t="s">
+        <v>0</v>
+      </c>
+      <c r="C18" t="s">
+        <v>0</v>
+      </c>
+      <c r="D18" t="s">
+        <v>0</v>
+      </c>
+      <c r="E18" t="s">
+        <v>0</v>
+      </c>
+      <c r="F18" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19">
+        <v>4</v>
+      </c>
+      <c r="B19" t="s">
+        <v>0</v>
+      </c>
+      <c r="C19" t="s">
+        <v>0</v>
+      </c>
+      <c r="D19" t="s">
+        <v>0</v>
+      </c>
+      <c r="E19" t="s">
+        <v>0</v>
+      </c>
+      <c r="F19" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20">
+        <v>5</v>
+      </c>
+      <c r="B20" t="s">
+        <v>0</v>
+      </c>
+      <c r="C20" t="s">
+        <v>0</v>
+      </c>
+      <c r="D20" t="s">
+        <v>0</v>
+      </c>
+      <c r="E20" t="s">
+        <v>0</v>
+      </c>
+      <c r="F20" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="B22">
+        <v>1</v>
+      </c>
+      <c r="C22">
+        <v>2</v>
+      </c>
+      <c r="D22">
+        <v>3</v>
+      </c>
+      <c r="E22">
+        <v>4</v>
+      </c>
+      <c r="F22">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23">
+        <v>1</v>
+      </c>
+      <c r="B23" t="s">
+        <v>0</v>
+      </c>
+      <c r="C23" t="s">
+        <v>0</v>
+      </c>
+      <c r="D23" t="s">
+        <v>0</v>
+      </c>
+      <c r="E23" t="s">
+        <v>0</v>
+      </c>
+      <c r="F23" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="B29">
+        <v>1</v>
+      </c>
+      <c r="C29">
+        <v>2</v>
+      </c>
+      <c r="D29">
+        <v>3</v>
+      </c>
+      <c r="E29">
+        <v>4</v>
+      </c>
+      <c r="F29">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30">
+        <v>1</v>
+      </c>
+      <c r="B30" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1">
+      <c r="A33">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1">
+      <c r="A34">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
